--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_Etuka.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -240,25 +240,25 @@
     <t>Etuka</t>
   </si>
   <si>
-    <t>WP21120135S02789</t>
-  </si>
-  <si>
-    <t>0032001F49</t>
-  </si>
-  <si>
-    <t>WP21120135S00027</t>
-  </si>
-  <si>
-    <t>0032002CCE</t>
-  </si>
-  <si>
-    <t>Thiết bị hỏng khay sim</t>
-  </si>
-  <si>
     <t>Đổi mới</t>
   </si>
   <si>
     <t>SIM</t>
+  </si>
+  <si>
+    <t>WP21120135S02789 / 0032001F49</t>
+  </si>
+  <si>
+    <t>WP21120135S00027 / 0032002CCE</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:S9"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,25 +1198,29 @@
       <c r="B6" s="54">
         <v>44802</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44811</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>65</v>
@@ -1228,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
@@ -1247,24 +1251,22 @@
       <c r="B7" s="54">
         <v>44802</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44811</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="37" t="s">
         <v>72</v>
       </c>
+      <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
@@ -1272,16 +1274,16 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>66</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
@@ -1666,7 +1668,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1698,7 +1700,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1943,7 +1945,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2167,7 +2169,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -5049,8 +5051,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -5061,13 +5061,15 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
